--- a/cryptocurrancy.xlsx
+++ b/cryptocurrancy.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="AF8E005F92748BD4FA7F1807EFF437DDF31DE4CD" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="AF8E005F92748BD4FA7F1807EFF437DDF31DE4CD" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{8608A4CB-8319-42C8-9560-95059B305F72}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171026"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -499,21 +499,21 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625"/>
-    <col min="2" max="6" width="11.5546875"/>
-    <col min="7" max="8" width="10.109375"/>
-    <col min="9" max="10" width="11.5546875"/>
-    <col min="11" max="11" width="19.109375"/>
+    <col min="1" max="1" width="14.453125"/>
+    <col min="2" max="6" width="11.54296875"/>
+    <col min="7" max="8" width="10.1796875"/>
+    <col min="9" max="10" width="11.54296875"/>
+    <col min="11" max="11" width="19.1796875"/>
     <col min="12" max="12" width="21"/>
-    <col min="13" max="13" width="10.109375"/>
+    <col min="13" max="13" width="10.1796875"/>
     <col min="14" max="14" width="10"/>
-    <col min="15" max="15" width="18.109375"/>
-    <col min="16" max="1025" width="11.5546875"/>
+    <col min="15" max="15" width="18.1796875"/>
+    <col min="16" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -554,18 +554,18 @@
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:E6" si="0">B2*$L$8</f>
-        <v>5.2499999999999998E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" si="0"/>
-        <v>6.7500000000000004E-2</v>
+        <v>0.09</v>
       </c>
       <c r="F2" s="1">
         <f>L14</f>
@@ -573,19 +573,19 @@
       </c>
       <c r="G2" s="2">
         <f>B2-D2-F2</f>
-        <v>3.0496999999999996</v>
+        <v>4.5271999999999997</v>
       </c>
       <c r="H2" s="2">
         <f>C2-E2-F2</f>
-        <v>4.0347</v>
+        <v>5.5122</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:J6" si="1">B2*$L$6</f>
-        <v>2.1232710507158457E-4</v>
+        <v>3.0332443581654941E-4</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="1"/>
-        <v>2.7299199223489444E-4</v>
+        <v>3.6398932297985928E-4</v>
       </c>
       <c r="L2">
         <v>5</v>
@@ -597,19 +597,19 @@
       </c>
       <c r="B3" s="1">
         <f>B2*$L$2</f>
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <f>C2*$L$2</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="0"/>
-        <v>0.26250000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" si="0"/>
-        <v>0.33749999999999997</v>
+        <v>0.44999999999999996</v>
       </c>
       <c r="F3" s="1">
         <f>$L$13</f>
@@ -617,19 +617,19 @@
       </c>
       <c r="G3" s="2">
         <f>B3-D3-F3</f>
-        <v>14.8507</v>
+        <v>22.238199999999999</v>
       </c>
       <c r="H3" s="2">
         <f>C3-E3-F3</f>
-        <v>19.775700000000001</v>
+        <v>27.1632</v>
       </c>
       <c r="I3" s="1">
         <f t="shared" si="1"/>
-        <v>1.0616355253579228E-3</v>
+        <v>1.5166221790827469E-3</v>
       </c>
       <c r="J3" s="1">
         <f t="shared" si="1"/>
-        <v>1.3649599611744723E-3</v>
+        <v>1.8199466148992962E-3</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
@@ -641,19 +641,19 @@
       </c>
       <c r="B4" s="1">
         <f>B3*7</f>
-        <v>122.5</v>
+        <v>175</v>
       </c>
       <c r="C4" s="1">
         <f>C3*7</f>
-        <v>157.5</v>
+        <v>210</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
-        <v>1.8374999999999999</v>
+        <v>2.625</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
-        <v>2.3624999999999998</v>
+        <v>3.15</v>
       </c>
       <c r="F4" s="1">
         <f>$L$13*7</f>
@@ -661,19 +661,19 @@
       </c>
       <c r="G4" s="2">
         <f>B4-D4-F4</f>
-        <v>103.95489999999999</v>
+        <v>155.66739999999999</v>
       </c>
       <c r="H4" s="2">
         <f>C4-E4-F4</f>
-        <v>138.42989999999998</v>
+        <v>190.14240000000001</v>
       </c>
       <c r="I4" s="1">
         <f t="shared" si="1"/>
-        <v>7.4314486775054599E-3</v>
+        <v>1.0616355253579228E-2</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" si="1"/>
-        <v>9.5547197282213059E-3</v>
+        <v>1.2739626304295074E-2</v>
       </c>
       <c r="L4">
         <v>16484</v>
@@ -685,19 +685,19 @@
       </c>
       <c r="B5" s="1">
         <f>B3*30</f>
-        <v>525</v>
+        <v>750</v>
       </c>
       <c r="C5" s="1">
         <f>C3*30</f>
-        <v>675</v>
+        <v>900</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="0"/>
-        <v>7.875</v>
+        <v>11.25</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>10.125</v>
+        <v>13.5</v>
       </c>
       <c r="F5" s="1">
         <f>$L$13*30</f>
@@ -705,19 +705,19 @@
       </c>
       <c r="G5" s="2">
         <f>B5-D5-F5</f>
-        <v>445.52100000000002</v>
+        <v>667.14599999999996</v>
       </c>
       <c r="H5" s="2">
         <f>C5-E5-F5</f>
-        <v>593.27099999999996</v>
+        <v>814.89599999999996</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>3.1849065760737684E-2</v>
+        <v>4.5498665372482407E-2</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>4.0948798835234168E-2</v>
+        <v>5.4598398446978891E-2</v>
       </c>
       <c r="L5" t="s">
         <v>14</v>
@@ -729,19 +729,19 @@
       </c>
       <c r="B6" s="1">
         <f>B3*365</f>
-        <v>6387.5</v>
+        <v>9125</v>
       </c>
       <c r="C6" s="1">
         <f>C3*365</f>
-        <v>8212.5</v>
+        <v>10950</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>95.8125</v>
+        <v>136.875</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>123.1875</v>
+        <v>164.25</v>
       </c>
       <c r="F6" s="1">
         <f>$L$13*256</f>
@@ -749,19 +749,19 @@
       </c>
       <c r="G6" s="2">
         <f>B6-D6-F6</f>
-        <v>5680.6666999999998</v>
+        <v>8377.1041999999998</v>
       </c>
       <c r="H6" s="2">
         <f>C6-E6-F6</f>
-        <v>7478.2916999999998</v>
+        <v>10174.7292</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="1"/>
-        <v>0.38749696675564183</v>
+        <v>0.55356709536520265</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="1"/>
-        <v>0.49821038582868238</v>
+        <v>0.66428051443824321</v>
       </c>
       <c r="L6">
         <f>1/L4</f>
@@ -778,7 +778,7 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>2168.9899999999998</v>
+        <v>2531.73</v>
       </c>
       <c r="L8">
         <v>1.4999999999999999E-2</v>
@@ -810,11 +810,11 @@
       </c>
       <c r="B10" s="3">
         <f>$B$8/G5</f>
-        <v>4.868434933482372</v>
+        <v>3.7948664909929763</v>
       </c>
       <c r="C10" s="3">
         <f>$B$8/H5</f>
-        <v>3.6559852074347137</v>
+        <v>3.1068136302055724</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -838,11 +838,11 @@
       </c>
       <c r="B11" s="4">
         <f>G6-$B$8</f>
-        <v>3511.6767</v>
+        <v>5845.3742000000002</v>
       </c>
       <c r="C11" s="4">
         <f>H6-$B$8</f>
-        <v>5309.3017</v>
+        <v>7642.9992000000002</v>
       </c>
       <c r="L11" t="s">
         <v>22</v>
@@ -910,9 +910,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="11.5546875"/>
+    <col min="1" max="1025" width="11.54296875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
